--- a/RBS_2Setembro/RBS_02Setembro.xlsx
+++ b/RBS_2Setembro/RBS_02Setembro.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive - Universidade de Lisboa\NUCRIA\ISOLDE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive - Universidade de Lisboa\NUCRIA\ISOLDE\Gold_n_Lead\RBS_2Setembro\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7260" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Runs" sheetId="2" r:id="rId2"/>
+    <sheet name="Runs" sheetId="2" r:id="rId1"/>
+    <sheet name="Calibration" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>Run</t>
   </si>
@@ -124,13 +124,89 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>kinematic factor</t>
+  </si>
+  <si>
+    <t>Back Energy (keV)</t>
+  </si>
+  <si>
+    <t>Surface channel</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>Au</t>
+  </si>
+  <si>
+    <t>Pb</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>nm</t>
+  </si>
+  <si>
+    <t>ug/cm^2</t>
+  </si>
+  <si>
+    <t>10^15 atms/cm^2</t>
+  </si>
+  <si>
+    <t>Target thicknesses:</t>
+  </si>
+  <si>
+    <t>Element calculator:</t>
+  </si>
+  <si>
+    <t>K factor</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Cl</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Zn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,8 +214,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,8 +249,86 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -215,11 +390,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -234,6 +502,89 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -249,6 +600,1068 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>RBS Calib</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.9689195100612424E-2"/>
+                  <c:y val="-0.17171296296296296"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Calibration!$G$5:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>737</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>739</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Calibration!$F$5:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>387.62124088212039</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>653.26684850728577</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1021.6361470866716</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1398.6474275084709</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1404.1779232146746</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1409355632"/>
+        <c:axId val="1409359984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1409355632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Channel</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1409359984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1409359984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Energy (keV)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1409355632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>403225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -514,41 +1927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B5"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B3">
-        <f>0.000015*6.022E+23*3.18/78.07</f>
-        <v>3.6793826053541702E+17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B5">
-        <f>0.0015*6.022E+23*1.23/100.117</f>
-        <v>1.1097605801212582E+19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -944,8 +2326,404 @@
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="I21" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.81640625" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="34"/>
+    </row>
+    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="13">
+        <v>6</v>
+      </c>
+      <c r="D5" s="14">
+        <v>12.010999999999999</v>
+      </c>
+      <c r="E5" s="15">
+        <f>((SQRT(1-(4.0026/D5)^2*SIN(RADIANS(165))^2)+4.0026/D5*COS(RADIANS(165)))/(1+4.0026/D5))^2</f>
+        <v>0.25585560454265371</v>
+      </c>
+      <c r="F5" s="16">
+        <f>1515*E5</f>
+        <v>387.62124088212039</v>
+      </c>
+      <c r="G5" s="13">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="18">
+        <v>9</v>
+      </c>
+      <c r="D6" s="19">
+        <v>18.998000000000001</v>
+      </c>
+      <c r="E6" s="51">
+        <f t="shared" ref="E6:E9" si="0">((SQRT(1-(4.0026/D6)^2*SIN(RADIANS(165))^2)+4.0026/D6*COS(RADIANS(165)))/(1+4.0026/D6))^2</f>
+        <v>0.43119923993880249</v>
+      </c>
+      <c r="F6" s="20">
+        <f t="shared" ref="F6:F9" si="1">1515*E6</f>
+        <v>653.26684850728577</v>
+      </c>
+      <c r="G6" s="18">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="9">
+        <v>20</v>
+      </c>
+      <c r="D7" s="10">
+        <v>40.078000000000003</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.67434729180638386</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="1"/>
+        <v>1021.6361470866716</v>
+      </c>
+      <c r="G7" s="9">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="21">
+        <v>79</v>
+      </c>
+      <c r="D8" s="22">
+        <v>196.97</v>
+      </c>
+      <c r="E8" s="23">
+        <f t="shared" si="0"/>
+        <v>0.92319962211780249</v>
+      </c>
+      <c r="F8" s="24">
+        <f t="shared" si="1"/>
+        <v>1398.6474275084709</v>
+      </c>
+      <c r="G8" s="21">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="27">
+        <v>82</v>
+      </c>
+      <c r="D9" s="28">
+        <v>207.2</v>
+      </c>
+      <c r="E9" s="29">
+        <f t="shared" si="0"/>
+        <v>0.92685011433311859</v>
+      </c>
+      <c r="F9" s="30">
+        <f t="shared" si="1"/>
+        <v>1404.1779232146746</v>
+      </c>
+      <c r="G9" s="27">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="41"/>
+    </row>
+    <row r="13" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="42"/>
+      <c r="D13" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C14" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="35">
+        <v>100</v>
+      </c>
+      <c r="E14" s="36">
+        <f>D14*10^-7*6.022E+23*2.267/12.011*10^-15</f>
+        <v>1136.6142702522689</v>
+      </c>
+      <c r="F14" s="37">
+        <f>D14*10^-7*2.267*10^6</f>
+        <v>22.669999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="38">
+        <v>100</v>
+      </c>
+      <c r="E15" s="39">
+        <f>D15*10^-7*6.022E+23*19.3/196.967*10^-15</f>
+        <v>590.07143328577888</v>
+      </c>
+      <c r="F15" s="40">
+        <f>D15*10^-7*19.3*10^6</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="8:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="8:14" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H18" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="47"/>
+      <c r="K18" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18" s="48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="K19" s="17">
+        <v>720</v>
+      </c>
+      <c r="L19" s="17">
+        <f>K19*1.7813+90.28</f>
+        <v>1372.816</v>
+      </c>
+      <c r="M19" s="52">
+        <f>L19/1515</f>
+        <v>0.90614917491749181</v>
+      </c>
+    </row>
+    <row r="20" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="K20">
+        <v>613</v>
+      </c>
+      <c r="L20">
+        <f>K20*1.7813+90.28</f>
+        <v>1182.2169000000001</v>
+      </c>
+      <c r="M20">
+        <f>L20/1515</f>
+        <v>0.78034118811881192</v>
+      </c>
+      <c r="N20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="K21">
+        <v>514</v>
+      </c>
+      <c r="L21">
+        <f>K21*1.7813+90.28</f>
+        <v>1005.8682</v>
+      </c>
+      <c r="M21">
+        <f>L21/1515</f>
+        <v>0.66393940594059409</v>
+      </c>
+      <c r="N21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="K22">
+        <v>486</v>
+      </c>
+      <c r="L22">
+        <f>K22*1.7813+90.28</f>
+        <v>955.99180000000001</v>
+      </c>
+      <c r="M22" s="50">
+        <f>L22/1515</f>
+        <v>0.63101768976897687</v>
+      </c>
+      <c r="N22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="K23">
+        <v>482</v>
+      </c>
+      <c r="L23">
+        <f>K23*1.7813+90.28</f>
+        <v>948.86660000000006</v>
+      </c>
+      <c r="M23">
+        <f>L23/1515</f>
+        <v>0.62631458745874591</v>
+      </c>
+      <c r="N23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="K24">
+        <v>430</v>
+      </c>
+      <c r="L24">
+        <f>K24*1.7813+90.28</f>
+        <v>856.23900000000003</v>
+      </c>
+      <c r="M24">
+        <f>L24/1515</f>
+        <v>0.56517425742574257</v>
+      </c>
+      <c r="N24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="K25">
+        <v>370</v>
+      </c>
+      <c r="L25">
+        <f>K25*1.7813+90.28</f>
+        <v>749.36099999999999</v>
+      </c>
+      <c r="M25" s="50">
+        <f>L25/1515</f>
+        <v>0.49462772277227723</v>
+      </c>
+      <c r="N25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="K26">
+        <v>261</v>
+      </c>
+      <c r="L26">
+        <f>K26*1.7813+90.28</f>
+        <v>555.19929999999999</v>
+      </c>
+      <c r="M26" s="50">
+        <f>L26/1515</f>
+        <v>0.36646818481848187</v>
+      </c>
+      <c r="N26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="K27">
+        <v>210</v>
+      </c>
+      <c r="L27">
+        <f>K27*1.7813+90.28</f>
+        <v>464.35300000000007</v>
+      </c>
+      <c r="M27" s="50">
+        <f>L27/1515</f>
+        <v>0.30650363036303635</v>
+      </c>
+      <c r="N27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="K28" s="31">
+        <v>172</v>
+      </c>
+      <c r="L28" s="31">
+        <f>K28*1.7813+90.28</f>
+        <v>396.66359999999997</v>
+      </c>
+      <c r="M28" s="53">
+        <f>L28/1515</f>
+        <v>0.26182415841584156</v>
+      </c>
+      <c r="N28" s="54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="H18:I18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>